--- a/assets/Monthly Account.xlsx
+++ b/assets/Monthly Account.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMG\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4F579-14BA-45D4-B382-9B39577DF30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="716" firstSheet="1" activeTab="10" xr2:uid="{5338AA1D-DD79-4AE6-A27A-06F470A68FE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" tabRatio="716" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -27,9 +21,9 @@
     <sheet name="December" sheetId="12" r:id="rId12"/>
     <sheet name="Issues" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -400,8 +394,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,7 +712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -770,7 +764,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -964,21 +958,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D850E0-726C-464F-B34D-8D12A271F244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -996,7 +990,7 @@
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -1141,7 +1135,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -1188,13 +1182,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1233,14 +1227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F49FCB-32D9-4031-82E1-CF801D87CA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -1258,7 +1252,7 @@
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="45">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1403,7 +1397,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
@@ -1451,7 +1445,7 @@
       </c>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1530,14 +1524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D279EA3A-19D5-4444-98AB-CE332F90BF8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -1552,7 +1546,7 @@
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -1649,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="30">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="30">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
@@ -1731,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="30">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1786,7 +1780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="60">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1815,14 +1809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0F2AF8-255C-43F1-93CD-4ABCEABC1A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -1837,7 +1831,7 @@
     <col min="18" max="18" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1937,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1966,7 +1960,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -2001,7 +1995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>99</v>
       </c>
@@ -2045,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
@@ -2092,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>105</v>
       </c>
@@ -2136,12 +2130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1"/>
+    <row r="9" spans="1:18" s="2" customFormat="1"/>
+    <row r="10" spans="1:18" s="2" customFormat="1"/>
+    <row r="11" spans="1:18" s="2" customFormat="1"/>
+    <row r="12" spans="1:18" s="2" customFormat="1"/>
+    <row r="13" spans="1:18" s="7" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
@@ -2149,7 +2143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
@@ -2178,16 +2172,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C727EE-EF2C-4B79-8188-01956B40FDE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -2198,14 +2192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93B50B3-BA4F-451D-9F7A-042E3649960B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
@@ -2221,7 +2215,7 @@
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2277,7 +2271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -2322,7 +2316,7 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -2414,7 +2408,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -2508,19 +2502,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1">
       <c r="E7" s="6"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1">
       <c r="E8" s="6"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1">
       <c r="E9" s="6"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2528,7 +2522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="30">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -2557,14 +2551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C6925C-904B-43C3-9692-933F96A7A6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -2582,7 +2576,7 @@
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +2632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2676,7 +2670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="23" t="s">
         <v>59</v>
       </c>
@@ -2716,7 +2710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="24"/>
       <c r="F4" s="2" t="s">
         <v>29</v>
@@ -2737,7 +2731,7 @@
       </c>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="24"/>
       <c r="F5" s="2" t="s">
         <v>30</v>
@@ -2758,7 +2752,7 @@
       </c>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="25"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2790,7 +2784,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2822,7 +2816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2860,7 +2854,7 @@
         <v>9558</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>168740</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -2906,7 +2900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="45">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -2940,14 +2934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CF1724-6007-439E-8C44-15938D6B17DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -2961,7 +2955,7 @@
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3017,7 +3011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3064,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="30">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -3108,7 +3102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3116,7 +3110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3124,7 +3118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="45">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -3153,14 +3147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C872AF7F-A4FE-42F9-8B5C-2BEFD32528EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -3172,7 +3166,7 @@
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3228,7 +3222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3272,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3313,7 +3307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3360,7 +3354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3371,7 +3365,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="75">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -3409,14 +3403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC0101-4D7E-4DD2-85E8-19465203AE38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -3430,7 +3424,7 @@
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -3486,7 +3480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="60">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -3536,7 +3530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3584,10 +3578,10 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1"/>
+    <row r="5" spans="1:18" s="2" customFormat="1"/>
+    <row r="6" spans="1:18" s="2" customFormat="1"/>
+    <row r="7" spans="1:18" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3595,7 +3589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="45">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3624,14 +3618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14D3EB7-C0EF-4B1D-B417-6D8018834012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -3640,7 +3634,7 @@
     <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3696,7 +3690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
@@ -3737,16 +3731,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3754,7 +3748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="75">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -3777,21 +3771,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF467EC-84E7-4D5D-83D4-CE2634DAA778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -3804,7 +3798,7 @@
     <col min="17" max="17" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3860,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -3957,7 +3951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -4002,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="30">
       <c r="A5" s="17" t="s">
         <v>96</v>
       </c>
@@ -4050,13 +4044,13 @@
       </c>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1">
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1">
       <c r="Q7" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -4064,7 +4058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="30">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -4094,14 +4088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08427486-25DC-482B-BF39-49C6E45994A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
@@ -4118,7 +4112,7 @@
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4174,7 +4168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
@@ -4222,34 +4216,34 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D3" s="6"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="D4" s="6"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="D5" s="6"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="2" customFormat="1">
       <c r="D6" s="6"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1">
       <c r="D7" s="6"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="2" customFormat="1">
       <c r="D8" s="6"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -4257,7 +4251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="45">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
